--- a/학습자료/단답형/국어_복습_5일차.xlsx
+++ b/학습자료/단답형/국어_복습_5일차.xlsx
@@ -1695,7 +1695,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>화이부동 , 「남과 사이 좋게 지내되 의(義)를 굽혀 좇지는 아니한다.」는 뜻으로, 곧, 남과 화목(和睦)하게 지내지만 자기(自己)의 중심(中心)과 원칙(原則)을 잃지 않음.</t>
+          <t>화이부동 , 「남과 사이 좋게 지내되 의(義)를 굽혀 좇지는 아니한다」는 뜻으로, 곧, 남과 화목(和睦)하게 지내지만 자기(自己)의 중심(中心)과 원칙(原則)을 잃지 않음</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>일사불란, 「한 오라기의 실도 흐트러지지 않았다.」는 뜻으로, 질서(秩序)나 체계(體系) 따위가 잘 잡혀 있어서 조금도 흐트러짐이 없음을 이르는 말.</t>
+          <t>일사불란, 「한 오라기의 실도 흐트러지지 않았다」는 뜻으로, 질서(秩序)나 체계(體系) 따위가 잘 잡혀 있어서 조금도 흐트러짐이 없음을 이르는 말</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>곡복사신, 밥 먹고 옷 입는 일.</t>
+          <t>곡복사신, 밥 먹고 옷 입는 일</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>우이독경, 「쇠귀에 경 읽기」란 뜻으로, 우둔(愚鈍)한 사람은 아무리 가르치고 일러주어도 알아듣지 못함을 비유(比喩ㆍ譬喩)하여 이르는 말.</t>
+          <t>우이독경, 「쇠귀에 경 읽기」란 뜻으로, 우둔(愚鈍)한 사람은 아무리 가르치고 일러주어도 알아듣지 못함을 비유(比喩ㆍ譬喩)하여 이르는 말</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>경국지사, 나랏일을 다스릴 만한 사람.</t>
+          <t>경국지사, 나랏일을 다스릴 만한 사람</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>첩경, 지름길. 멀리 돌지 않고 가깝게 질러 통(通)하는 길.</t>
+          <t>첩경, 지름길 멀리 돌지 않고 가깝게 질러 통(通)하는 길</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2245,11 +2245,9 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>한강투석, 「한강(漢江)에 아무리 돌을 많이 집어 넣어도 메울 수 없다.」는 뜻으로,
-1.
-아무리 도와도 보람이 없는 것.
-2.
-아무리 투자(投資)를 하거나 애를 써도 보람이 없음을 이르는 말.</t>
+          <t>한강투석, 「한강(漢江)에 아무리 돌을 많이 집어 넣어도 메울 수 없다」는 뜻으로,
+1) 아무리 도와도 보람이 없는 것
+2) 아무리 투자(投資)를 하거나 애를 써도 보람이 없음을 이르는 말</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2315,7 +2313,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>맥수지탄, 「나무가 고요하고자 하나 바람이 그치지 않는다.」는 뜻으로, 부모(父母)에게 효도(孝道)를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말.</t>
+          <t>맥수지탄, 「나무가 고요하고자 하나 바람이 그치지 않는다」는 뜻으로, 부모(父母)에게 효도(孝道)를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2337,7 +2335,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>풍수지탄, 「나무가 고요하고자 하나 바람이 그치지 않는다.」는 뜻으로, 부모(父母)에게 효도(孝道)를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말.</t>
+          <t>풍수지탄, 「나무가 고요하고자 하나 바람이 그치지 않는다」는 뜻으로, 부모(父母)에게 효도(孝道)를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2359,11 +2357,9 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>망양지탄, 「달아난 양(羊)을 찾다가 여러 갈래 길에 이르러 길을 잃었다.」는 뜻으로,
-1.
-학문(學問)의 길이 여러 갈래로 나뉘어져 있어 진리(眞理)를 찾기 어려움.
-2.
-방침(方針)이 많아 할 바를 모르게 됨.</t>
+          <t>망양지탄, 「달아난 양(羊)을 찾다가 여러 갈래 길에 이르러 길을 잃었다」는 뜻으로,
+1) 학문(學問)의 길이 여러 갈래로 나뉘어져 있어 진리(眞理)를 찾기 어려움
+2) 방침(方針)이 많아 할 바를 모르게 됨</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2386,12 +2382,9 @@
       <c r="B89" t="inlineStr">
         <is>
           <t>망양지탄, 
-1.
-「넓은 바다를 보고 탄식(歎息)한다.」는 뜻으로,
-2.
-남의 원대(遠大)함에 감탄(感歎ㆍ感嘆)하고, 나의 미흡(未洽)함을 부끄러워함의 비유(比喩ㆍ譬喩).
-3.
-제힘이 미치지 못할 때 하는 탄식(歎息).</t>
+1) 「넓은 바다를 보고 탄식(歎息)한다」는 뜻으로,
+2) 남의 원대(遠大)함에 감탄(感歎ㆍ感嘆)하고, 나의 미흡(未洽)함을 부끄러워함의 비유(比喩ㆍ譬喩)
+3) 제힘이 미치지 못할 때 하는 탄식(歎息)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2413,7 +2406,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>만시지탄, 「때늦은 한탄(恨歎)」이라는 뜻으로, 「시기(時期)가 늦어 기회(機會)를 놓친 것이 원통(寃痛)해서 탄식(歎息)함.」을 이르는 말.</t>
+          <t>만시지탄, 「때늦은 한탄(恨歎)」이라는 뜻으로, 「시기(時期)가 늦어 기회(機會)를 놓친 것이 원통(寃痛)해서 탄식(歎息)함」을 이르는 말</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2436,12 +2429,9 @@
       <c r="B91" t="inlineStr">
         <is>
           <t>비육지탄, 
-1.
-「넓적다리에 살이 붙음을 탄식(歎息)한다.」는 뜻으로,
-2.
-자기(自己)의 뜻을 펴지 못하고 허송세월(歲月)하는 것을 한탄(恨歎)하다 성공(成功)할 기회(機會)를 잃고 공연(...
-3.
-영웅(英雄)이 때를 만나지 못하여 싸움에 나가지 못하고 넓적다리에 헛된 살만 쩌 가는 것을 한탄(恨歎)한다</t>
+1) 「넓적다리에 살이 붙음을 탄식(歎息)한다」는 뜻으로,
+2) 자기(自己)의 뜻을 펴지 못하고 허송세월(歲月)하는 것을 한탄(恨歎)하다 성공(成功)할 기회(機會)를 잃고 공연(
+3) 영웅(英雄)이 때를 만나지 못하여 싸움에 나가지 못하고 넓적다리에 헛된 살만 쩌 가는 것을 한탄(恨歎)한다</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2463,7 +2453,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>절치부심, 「이를 갈고 마음을 썩이다.」는 뜻으로, 대단히 분(憤)하게 여기고 마음을 썩임.</t>
+          <t>절치부심, 「이를 갈고 마음을 썩이다」는 뜻으로, 대단히 분(憤)하게 여기고 마음을 썩임</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2485,7 +2475,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>사필귀정, 처음에는 시비곡직(是非曲直)을 가리지 못하여 그릇되더라도 모든 일은 결국(結局)에 가서는 반드시 정리(正理)로 돌아감.</t>
+          <t>사필귀정, 처음에는 시비곡직(是非曲直)을 가리지 못하여 그릇되더라도 모든 일은 결국(結局)에 가서는 반드시 정리(正理)로 돌아감</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2529,7 +2519,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>벽사진경, 사귀(邪鬼)를 쫓고 경사(慶事)로운 일을 맞이함.</t>
+          <t>벽사진경, 사귀(邪鬼)를 쫓고 경사(慶事)로운 일을 맞이함</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2551,7 +2541,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>견강부회, 이치(理致)에 맞지 않는 말을 억지로 끌어 붙여 자기(自己) 주장(主張)의 조건(條件)에 맞도록 함.</t>
+          <t>견강부회, 이치(理致)에 맞지 않는 말을 억지로 끌어 붙여 자기(自己) 주장(主張)의 조건(條件)에 맞도록 함</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2573,7 +2563,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>은인자중, 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중(愼重)히 함.</t>
+          <t>은인자중, 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중(愼重)히 함</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2683,13 +2673,8 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>오월동주,
-1.
-「오(吳)나라 사람과 월(越)나라 사람이 한 배에 타고 있다.」는 뜻으로,
-2.
-어려운 상황(狀況)에서는 원수(怨讐)라도 협력(協力)하게 됨.
-3.
-뜻이 전혀 다른 사람들이 한자리에 있게 됨.</t>
+          <t>오월동주, 1) 「오(吳)나라 사람과 월(越)나라 사람이 한 배에 타고 있다」는 뜻으로,
+2) 어려운 상황(狀況)에서는 원수(怨讐)라도 협력(協力)하게 됨 3) 뜻이 전혀 다른 사람들이 한자리에 있게 됨</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2711,7 +2696,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>낭중지추, 1. 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味).</t>
+          <t>낭중지추, 1) 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2777,7 +2762,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>추처낭중, 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味).</t>
+          <t>추처낭중, 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">

--- a/학습자료/단답형/국어_복습_5일차.xlsx
+++ b/학습자료/단답형/국어_복습_5일차.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -2345,14 +2345,14 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>亡羊之歎</t>
+          <t>亡羊之歎/望洋之歎</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2369,22 +2369,19 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>望洋之歎</t>
+          <t>晩時之歎</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>망양지탄, 
-1) 「넓은 바다를 보고 탄식(歎息)한다」는 뜻으로,
-2) 남의 원대(遠大)함에 감탄(感歎ㆍ感嘆)하고, 나의 미흡(未洽)함을 부끄러워함의 비유(比喩ㆍ譬喩)
-3) 제힘이 미치지 못할 때 하는 탄식(歎息)</t>
+          <t>만시지탄, 「때늦은 한탄(恨歎)」이라는 뜻으로, 「시기(時期)가 늦어 기회(機會)를 놓친 것이 원통(寃痛)해서 탄식(歎息)함」을 이르는 말</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2394,39 +2391,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>晩時之歎</t>
+          <t>髀肉之嘆</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
-        <is>
-          <t>만시지탄, 「때늦은 한탄(恨歎)」이라는 뜻으로, 「시기(時期)가 늦어 기회(機會)를 놓친 것이 원통(寃痛)해서 탄식(歎息)함」을 이르는 말</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>髀肉之嘆</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
         <is>
           <t>비육지탄, 
 1) 「넓적다리에 살이 붙음을 탄식(歎息)한다」는 뜻으로,
@@ -2434,6 +2409,28 @@
 3) 영웅(英雄)이 때를 만나지 못하여 싸움에 나가지 못하고 넓적다리에 헛된 살만 쩌 가는 것을 한탄(恨歎)한다</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>切齒腐心</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>절치부심, 「이를 갈고 마음을 썩이다」는 뜻으로, 대단히 분(憤)하게 여기고 마음을 썩임</t>
+        </is>
+      </c>
       <c r="C91" t="inlineStr">
         <is>
           <t>5일차</t>
@@ -2441,19 +2438,19 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>切齒腐心</t>
+          <t>事必歸正</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>절치부심, 「이를 갈고 마음을 썩이다」는 뜻으로, 대단히 분(憤)하게 여기고 마음을 썩임</t>
+          <t>사필귀정, 처음에는 시비곡직(是非曲直)을 가리지 못하여 그릇되더라도 모든 일은 결국(結局)에 가서는 반드시 정리(正理)로 돌아감</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2463,19 +2460,19 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>事必歸正</t>
+          <t>風木之悲</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>사필귀정, 처음에는 시비곡직(是非曲直)을 가리지 못하여 그릇되더라도 모든 일은 결국(結局)에 가서는 반드시 정리(正理)로 돌아감</t>
+          <t>풍목지비, (→風樹之歎(풍수지탄))</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2485,19 +2482,19 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>風木之悲</t>
+          <t>辟邪進慶</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>풍목지비, (→風樹之歎(풍수지탄))</t>
+          <t>벽사진경, 사귀(邪鬼)를 쫓고 경사(慶事)로운 일을 맞이함</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2507,19 +2504,19 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>辟邪進慶</t>
+          <t>牽強附會</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>벽사진경, 사귀(邪鬼)를 쫓고 경사(慶事)로운 일을 맞이함</t>
+          <t>견강부회, 이치(理致)에 맞지 않는 말을 억지로 끌어 붙여 자기(自己) 주장(主張)의 조건(條件)에 맞도록 함</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2529,19 +2526,19 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>牽強附會</t>
+          <t>隱忍自重</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>견강부회, 이치(理致)에 맞지 않는 말을 억지로 끌어 붙여 자기(自己) 주장(主張)의 조건(條件)에 맞도록 함</t>
+          <t>은인자중, 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중(愼重)히 함</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2551,19 +2548,19 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>隱忍自重</t>
+          <t>황후(뜻)</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>은인자중, 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중(愼重)히 함</t>
+          <t>물건</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2573,19 +2570,19 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>고전</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>황후(뜻)</t>
+          <t>동난지이(뜻)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>물건</t>
+          <t>게</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2602,12 +2599,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>동난지이(뜻)</t>
+          <t>쟝스(뜻)</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>게</t>
+          <t>장사꾼</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2624,12 +2621,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>쟝스(뜻)</t>
+          <t>아리(뜻)</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>장사꾼</t>
+          <t>다리</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2646,12 +2643,13 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>아리(뜻)</t>
+          <t>吳越同舟</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>다리</t>
+          <t>오월동주, 1) 「오(吳)나라 사람과 월(越)나라 사람이 한 배에 타고 있다」는 뜻으로,
+2) 어려운 상황(狀況)에서는 원수(怨讐)라도 협력(協力)하게 됨 3) 뜻이 전혀 다른 사람들이 한자리에 있게 됨</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2661,20 +2659,19 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>고전</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>吳越同舟</t>
+          <t>囊中之錐</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>오월동주, 1) 「오(吳)나라 사람과 월(越)나라 사람이 한 배에 타고 있다」는 뜻으로,
-2) 어려운 상황(狀況)에서는 원수(怨讐)라도 협력(協力)하게 됨 3) 뜻이 전혀 다른 사람들이 한자리에 있게 됨</t>
+          <t>낭중지추, 1) 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2691,12 +2688,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>囊中之錐</t>
+          <t>隹</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>낭중지추, 1) 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
+          <t>새 추</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2713,12 +2710,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>隹</t>
+          <t>錐</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>새 추</t>
+          <t>송곳 추</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2735,12 +2732,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>錐</t>
+          <t>錐處囊中</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>송곳 추</t>
+          <t>추처낭중, 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2757,12 +2754,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>錐處囊中</t>
+          <t>하(고전)</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>추처낭중, 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
+          <t>높임의 호격조사</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2772,19 +2769,19 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>고전</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>하(고전)</t>
+          <t>곰(고전)</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>높임의 호격조사</t>
+          <t>강조 접미사</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2801,12 +2798,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>곰(고전)</t>
+          <t>샤(고전)</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>강조 접미사</t>
+          <t>주체 높임 선어말 어미</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2823,12 +2820,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>샤(고전)</t>
+          <t>ㄹ셰라(고전)</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>주체 높임 선어말 어미</t>
+          <t>~할까 두렵다</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2845,12 +2842,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ㄹ셰라(고전)</t>
+          <t>즈이(고전)</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>~할까 두렵다</t>
+          <t>모습이</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2859,28 +2856,6 @@
         </is>
       </c>
       <c r="D110" t="inlineStr">
-        <is>
-          <t>고전</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>즈이(고전)</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>모습이</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
         <is>
           <t>고전</t>
         </is>

--- a/학습자료/단답형/국어_복습_5일차.xlsx
+++ b/학습자료/단답형/국어_복습_5일차.xlsx
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
